--- a/FinalCalculations5.xlsx
+++ b/FinalCalculations5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jofia\Dropbox2\Dropbox\Dropbox2\~Middlebury~\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jofia\github\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD7B3C0-01EE-423E-9574-37D5003DCBB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA763E6A-6B20-41E5-93F4-B70650D210C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="530" windowWidth="9320" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegressionCalcs" sheetId="1" r:id="rId1"/>
@@ -716,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+    <sheetView topLeftCell="C2" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -2005,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N982"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
